--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44749</v>
+        <v>44839</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M3" t="n">
-        <v>17556</v>
+        <v>15600</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,12 +595,84 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1170</v>
+        <v>1040</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100112035</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bruselas (repollito)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>90</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17556</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>1170</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>15</v>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44750</v>
+        <v>44839</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>19571</v>
+        <v>15600</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1305</v>
+        <v>1040</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44839</v>
+        <v>44750</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>15600</v>
+        <v>19571</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1040</v>
+        <v>1305</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>19571</v>
+        <v>17556</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1305</v>
+        <v>1170</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>17556</v>
+        <v>19571</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1170</v>
+        <v>1305</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44839</v>
+        <v>44749</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>15600</v>
+        <v>17556</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1040</v>
+        <v>1170</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44749</v>
+        <v>44839</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M3" t="n">
-        <v>17556</v>
+        <v>15600</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1170</v>
+        <v>1040</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44839</v>
+        <v>44750</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>15600</v>
+        <v>19571</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1040</v>
+        <v>1305</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44750</v>
+        <v>44839</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M4" t="n">
-        <v>19571</v>
+        <v>15600</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1305</v>
+        <v>1040</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44749</v>
+        <v>44839</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>17556</v>
+        <v>15600</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1170</v>
+        <v>1040</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>19571</v>
+        <v>17556</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1305</v>
+        <v>1170</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44839</v>
+        <v>44750</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>15600</v>
+        <v>19571</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1040</v>
+        <v>1305</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>17556</v>
+        <v>19571</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1170</v>
+        <v>1305</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44839</v>
+        <v>44749</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>15600</v>
+        <v>17556</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1040</v>
+        <v>1170</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44750</v>
+        <v>44839</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M4" t="n">
-        <v>19571</v>
+        <v>15600</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1305</v>
+        <v>1040</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>19571</v>
+        <v>17556</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1305</v>
+        <v>1170</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>17556</v>
+        <v>19571</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1170</v>
+        <v>1305</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>17556</v>
+        <v>19571</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1170</v>
+        <v>1305</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>19571</v>
+        <v>17556</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1305</v>
+        <v>1170</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44750</v>
+        <v>44839</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>19571</v>
+        <v>15600</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1305</v>
+        <v>1040</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44839</v>
+        <v>44750</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>15600</v>
+        <v>19571</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1040</v>
+        <v>1305</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44749</v>
+        <v>45063</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M3" t="n">
-        <v>17556</v>
+        <v>21500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1170</v>
+        <v>1433</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>19571</v>
+        <v>17556</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,12 +667,84 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1305</v>
+        <v>1170</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100112035</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bruselas (repollito)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>140</v>
+      </c>
+      <c r="K5" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>19571</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>1305</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>15</v>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44839</v>
+        <v>45063</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M2" t="n">
-        <v>15600</v>
+        <v>21500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1040</v>
+        <v>1433</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45063</v>
+        <v>44750</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>21500</v>
+        <v>19571</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1433</v>
+        <v>1305</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44749</v>
+        <v>44839</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M4" t="n">
-        <v>17556</v>
+        <v>15600</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1170</v>
+        <v>1040</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>19571</v>
+        <v>17556</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1305</v>
+        <v>1170</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45063</v>
+        <v>44749</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K2" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>21500</v>
+        <v>17556</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1433</v>
+        <v>1170</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44839</v>
+        <v>45063</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L4" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>15600</v>
+        <v>21500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1040</v>
+        <v>1433</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44749</v>
+        <v>44839</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M5" t="n">
-        <v>17556</v>
+        <v>15600</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,12 +739,84 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1170</v>
+        <v>1040</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45084</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100112035</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bruselas (repollito)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>90</v>
+      </c>
+      <c r="K6" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>22556</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>1504</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>15</v>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44749</v>
+        <v>45063</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M2" t="n">
-        <v>17556</v>
+        <v>21500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1170</v>
+        <v>1433</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45063</v>
+        <v>45084</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K4" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L4" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M4" t="n">
-        <v>21500</v>
+        <v>22556</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1433</v>
+        <v>1504</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45084</v>
+        <v>44749</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -792,13 +792,13 @@
         <v>90</v>
       </c>
       <c r="K6" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>22556</v>
+        <v>17556</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1504</v>
+        <v>1170</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45063</v>
+        <v>44749</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K2" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>21500</v>
+        <v>17556</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1433</v>
+        <v>1170</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L4" t="n">
         <v>22000</v>
       </c>
-      <c r="L4" t="n">
-        <v>23000</v>
-      </c>
       <c r="M4" t="n">
-        <v>22556</v>
+        <v>21000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1504</v>
+        <v>1400</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44839</v>
+        <v>45063</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L5" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M5" t="n">
-        <v>15600</v>
+        <v>21500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1040</v>
+        <v>1433</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44749</v>
+        <v>44839</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>17556</v>
+        <v>15600</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,12 +811,84 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1170</v>
+        <v>1040</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45084</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100112035</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bruselas (repollito)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>90</v>
+      </c>
+      <c r="K7" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>22556</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>1504</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>15</v>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44749</v>
+        <v>45084</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -504,13 +504,13 @@
         <v>90</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M2" t="n">
-        <v>17556</v>
+        <v>22556</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1170</v>
+        <v>1504</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>19571</v>
+        <v>17556</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1305</v>
+        <v>1170</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45091</v>
+        <v>45063</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>40</v>
       </c>
       <c r="K4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L4" t="n">
         <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1400</v>
+        <v>1433</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45063</v>
+        <v>45091</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -720,13 +720,13 @@
         <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="L5" t="n">
         <v>22000</v>
       </c>
       <c r="M5" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1433</v>
+        <v>1400</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44839</v>
+        <v>44750</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>15600</v>
+        <v>19571</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1040</v>
+        <v>1305</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45084</v>
+        <v>44839</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>22556</v>
+        <v>15600</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1504</v>
+        <v>1040</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45084</v>
+        <v>44839</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>22556</v>
+        <v>15600</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1504</v>
+        <v>1040</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>17556</v>
+        <v>19571</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1170</v>
+        <v>1305</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45091</v>
+        <v>45084</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L5" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M5" t="n">
-        <v>21000</v>
+        <v>22556</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1400</v>
+        <v>1504</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44750</v>
+        <v>45091</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M6" t="n">
-        <v>19571</v>
+        <v>21000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1305</v>
+        <v>1400</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44839</v>
+        <v>44749</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>15600</v>
+        <v>17556</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1040</v>
+        <v>1170</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44749</v>
+        <v>45119</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>17556</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,12 +883,84 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1170</v>
+        <v>1333</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100112035</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Bruselas (repollito)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>90</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>17556</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>1170</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>15</v>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45063</v>
+        <v>45133</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L4" t="n">
         <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1433</v>
+        <v>1467</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45084</v>
+        <v>45063</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L5" t="n">
         <v>22000</v>
       </c>
-      <c r="L5" t="n">
-        <v>23000</v>
-      </c>
       <c r="M5" t="n">
-        <v>22556</v>
+        <v>21500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1504</v>
+        <v>1433</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45091</v>
+        <v>45084</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L6" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M6" t="n">
-        <v>21000</v>
+        <v>22556</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1400</v>
+        <v>1504</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45119</v>
+        <v>45091</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
         <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M7" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1333</v>
+        <v>1400</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44749</v>
+        <v>45119</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>17556</v>
+        <v>20000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,12 +955,84 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1170</v>
+        <v>1333</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100112035</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Bruselas (repollito)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>90</v>
+      </c>
+      <c r="K9" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>17556</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>1170</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>15</v>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44839</v>
+        <v>44749</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>15600</v>
+        <v>17556</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1040</v>
+        <v>1170</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44750</v>
+        <v>44839</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M3" t="n">
-        <v>19571</v>
+        <v>15600</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1305</v>
+        <v>1040</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45133</v>
+        <v>44750</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>22000</v>
+        <v>19571</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1467</v>
+        <v>1305</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44749</v>
+        <v>45133</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M9" t="n">
-        <v>17556</v>
+        <v>22000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1170</v>
+        <v>1467</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44749</v>
+        <v>44839</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>17556</v>
+        <v>15600</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1170</v>
+        <v>1040</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44839</v>
+        <v>44750</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>15600</v>
+        <v>19571</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1040</v>
+        <v>1305</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44750</v>
+        <v>45133</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>19571</v>
+        <v>22000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1305</v>
+        <v>1467</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45133</v>
+        <v>44749</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K9" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>22000</v>
+        <v>17556</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1467</v>
+        <v>1170</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45084</v>
+        <v>45141</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>22000</v>
+        <v>8500</v>
       </c>
       <c r="L6" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>22556</v>
+        <v>8800</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1504</v>
+        <v>587</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45091</v>
+        <v>45084</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L7" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M7" t="n">
-        <v>21000</v>
+        <v>22556</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1400</v>
+        <v>1504</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45119</v>
+        <v>45091</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
         <v>20000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M8" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1333</v>
+        <v>1400</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45133</v>
+        <v>45119</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,12 +1027,84 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1467</v>
+        <v>1333</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100112035</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Bruselas (repollito)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K10" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>22000</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>1467</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>15</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44749</v>
+        <v>45091</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M2" t="n">
-        <v>17556</v>
+        <v>21000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1170</v>
+        <v>1400</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44750</v>
+        <v>45133</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>19571</v>
+        <v>22000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1305</v>
+        <v>1467</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45063</v>
+        <v>44750</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>21500</v>
+        <v>19571</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1433</v>
+        <v>1305</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45141</v>
+        <v>45084</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K6" t="n">
-        <v>8500</v>
+        <v>22000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="M6" t="n">
-        <v>8800</v>
+        <v>22556</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>587</v>
+        <v>1504</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45084</v>
+        <v>45119</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>22556</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1504</v>
+        <v>1333</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45091</v>
+        <v>45141</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="L8" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>21000</v>
+        <v>8800</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1400</v>
+        <v>587</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45119</v>
+        <v>44749</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K9" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>20000</v>
+        <v>17556</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1333</v>
+        <v>1170</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45133</v>
+        <v>45063</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="L10" t="n">
         <v>22000</v>
       </c>
       <c r="M10" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1467</v>
+        <v>1433</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45091</v>
+        <v>44749</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K2" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>21000</v>
+        <v>17556</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1400</v>
+        <v>1170</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45133</v>
+        <v>44750</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>22000</v>
+        <v>19571</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1467</v>
+        <v>1305</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44750</v>
+        <v>45063</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M5" t="n">
-        <v>19571</v>
+        <v>21500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1305</v>
+        <v>1433</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45084</v>
+        <v>45141</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>22000</v>
+        <v>8500</v>
       </c>
       <c r="L6" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>22556</v>
+        <v>8800</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1504</v>
+        <v>587</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45119</v>
+        <v>45084</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M7" t="n">
-        <v>20000</v>
+        <v>22556</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1333</v>
+        <v>1504</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45141</v>
+        <v>45091</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="M8" t="n">
-        <v>8800</v>
+        <v>21000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>587</v>
+        <v>1400</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44749</v>
+        <v>45119</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>17556</v>
+        <v>20000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1170</v>
+        <v>1333</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45063</v>
+        <v>45133</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L10" t="n">
         <v>22000</v>
       </c>
       <c r="M10" t="n">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1433</v>
+        <v>1467</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45091</v>
+        <v>45141</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="L2" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>21000</v>
+        <v>8800</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1400</v>
+        <v>587</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45133</v>
+        <v>45119</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1467</v>
+        <v>1333</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44750</v>
+        <v>45084</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M5" t="n">
-        <v>19571</v>
+        <v>22556</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1305</v>
+        <v>1504</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45084</v>
+        <v>44749</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -792,13 +792,13 @@
         <v>90</v>
       </c>
       <c r="K6" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>22556</v>
+        <v>17556</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1504</v>
+        <v>1170</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45119</v>
+        <v>45133</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -864,13 +864,13 @@
         <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1333</v>
+        <v>1467</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45141</v>
+        <v>44750</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>8800</v>
+        <v>19571</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>587</v>
+        <v>1305</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44749</v>
+        <v>45091</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M9" t="n">
-        <v>17556</v>
+        <v>21000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1170</v>
+        <v>1400</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45141</v>
+        <v>45133</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -504,13 +504,13 @@
         <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>8500</v>
+        <v>22000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="M2" t="n">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>587</v>
+        <v>1467</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45119</v>
+        <v>44749</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K4" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>20000</v>
+        <v>17556</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1333</v>
+        <v>1170</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44749</v>
+        <v>45091</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M6" t="n">
-        <v>17556</v>
+        <v>21000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1170</v>
+        <v>1400</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45133</v>
+        <v>45119</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -864,13 +864,13 @@
         <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1467</v>
+        <v>1333</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45091</v>
+        <v>45141</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="L9" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>21000</v>
+        <v>8800</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1400</v>
+        <v>587</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45133</v>
+        <v>45084</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K2" t="n">
         <v>22000</v>
       </c>
       <c r="L2" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M2" t="n">
-        <v>22000</v>
+        <v>22556</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1467</v>
+        <v>1504</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44839</v>
+        <v>45119</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L3" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>15600</v>
+        <v>20000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1040</v>
+        <v>1333</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44749</v>
+        <v>45141</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>17556</v>
+        <v>8800</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1170</v>
+        <v>587</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45084</v>
+        <v>44750</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>22556</v>
+        <v>19571</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1504</v>
+        <v>1305</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45091</v>
+        <v>44749</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K6" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>21000</v>
+        <v>17556</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1400</v>
+        <v>1170</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45119</v>
+        <v>45133</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -864,13 +864,13 @@
         <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1333</v>
+        <v>1467</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44750</v>
+        <v>44839</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>19571</v>
+        <v>15600</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1305</v>
+        <v>1040</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45141</v>
+        <v>45091</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K9" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="M9" t="n">
-        <v>8800</v>
+        <v>21000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>587</v>
+        <v>1400</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45084</v>
+        <v>44750</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>22556</v>
+        <v>19571</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1504</v>
+        <v>1305</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45141</v>
+        <v>44749</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K4" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>8800</v>
+        <v>17556</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>587</v>
+        <v>1170</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44750</v>
+        <v>45084</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M5" t="n">
-        <v>19571</v>
+        <v>22556</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1305</v>
+        <v>1504</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44749</v>
+        <v>44839</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>17556</v>
+        <v>15600</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1170</v>
+        <v>1040</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45133</v>
+        <v>45141</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -864,13 +864,13 @@
         <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>22000</v>
+        <v>8500</v>
       </c>
       <c r="L7" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>22000</v>
+        <v>8800</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1467</v>
+        <v>587</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44839</v>
+        <v>45091</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M8" t="n">
-        <v>15600</v>
+        <v>21000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1040</v>
+        <v>1400</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45091</v>
+        <v>45063</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>40</v>
       </c>
       <c r="K9" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L9" t="n">
         <v>22000</v>
       </c>
       <c r="M9" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1400</v>
+        <v>1433</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45063</v>
+        <v>45133</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L10" t="n">
         <v>22000</v>
       </c>
       <c r="M10" t="n">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1433</v>
+        <v>1467</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44750</v>
+        <v>45141</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>19571</v>
+        <v>8800</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1305</v>
+        <v>587</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45119</v>
+        <v>45084</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M3" t="n">
-        <v>20000</v>
+        <v>22556</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1333</v>
+        <v>1504</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44749</v>
+        <v>45063</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M4" t="n">
-        <v>17556</v>
+        <v>21500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1170</v>
+        <v>1433</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45084</v>
+        <v>45133</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
         <v>22000</v>
       </c>
       <c r="L5" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="M5" t="n">
-        <v>22556</v>
+        <v>22000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1504</v>
+        <v>1467</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45141</v>
+        <v>45119</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -864,13 +864,13 @@
         <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>8800</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>587</v>
+        <v>1333</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45091</v>
+        <v>44749</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>21000</v>
+        <v>17556</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1400</v>
+        <v>1170</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45063</v>
+        <v>44750</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="L9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>21500</v>
+        <v>19571</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1433</v>
+        <v>1305</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45133</v>
+        <v>45091</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L10" t="n">
         <v>22000</v>
       </c>
       <c r="M10" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1467</v>
+        <v>1400</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45141</v>
+        <v>45091</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="M2" t="n">
-        <v>8800</v>
+        <v>21000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>587</v>
+        <v>1400</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45119</v>
+        <v>44749</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K7" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>20000</v>
+        <v>17556</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1333</v>
+        <v>1170</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>17556</v>
+        <v>19571</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1170</v>
+        <v>1305</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44750</v>
+        <v>45141</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>19571</v>
+        <v>8800</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1305</v>
+        <v>587</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45091</v>
+        <v>45119</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
         <v>20000</v>
       </c>
       <c r="L10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1400</v>
+        <v>1333</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45091</v>
+        <v>45141</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="L2" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>21000</v>
+        <v>8800</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1400</v>
+        <v>587</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44749</v>
+        <v>45119</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>17556</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1170</v>
+        <v>1333</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>19571</v>
+        <v>17556</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1305</v>
+        <v>1170</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45141</v>
+        <v>44750</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>8800</v>
+        <v>19571</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>587</v>
+        <v>1305</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45119</v>
+        <v>45091</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
         <v>20000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M10" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1333</v>
+        <v>1400</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45091</v>
+        <v>44749</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K2" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>21000</v>
+        <v>17556</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1400</v>
+        <v>1170</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45084</v>
+        <v>44839</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="M3" t="n">
-        <v>22556</v>
+        <v>15600</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1504</v>
+        <v>1040</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45063</v>
+        <v>44750</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>21500</v>
+        <v>19571</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1433</v>
+        <v>1305</v>
       </c>
       <c r="Q4" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45133</v>
+        <v>45091</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L5" t="n">
         <v>22000</v>
       </c>
       <c r="M5" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1467</v>
+        <v>1400</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44839</v>
+        <v>45063</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M6" t="n">
-        <v>15600</v>
+        <v>21500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1040</v>
+        <v>1433</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44749</v>
+        <v>45141</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>17556</v>
+        <v>8800</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1170</v>
+        <v>587</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44750</v>
+        <v>45119</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L8" t="n">
         <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>19571</v>
+        <v>20000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1305</v>
+        <v>1333</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45141</v>
+        <v>45133</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>8500</v>
+        <v>22000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="M9" t="n">
-        <v>8800</v>
+        <v>22000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>587</v>
+        <v>1467</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45119</v>
+        <v>45084</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M10" t="n">
-        <v>20000</v>
+        <v>22556</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1333</v>
+        <v>1504</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Bruselas (repollito).xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44749</v>
+        <v>45141</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>17556</v>
+        <v>8800</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1170</v>
+        <v>587</v>
       </c>
       <c r="Q2" t="n">
         <v>15</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44839</v>
+        <v>45119</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L3" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>15600</v>
+        <v>20000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1040</v>
+        <v>1333</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45091</v>
+        <v>44749</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K5" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>21000</v>
+        <v>17556</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1400</v>
+        <v>1170</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45141</v>
+        <v>45091</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="M7" t="n">
-        <v>8800</v>
+        <v>21000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>587</v>
+        <v>1400</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45119</v>
+        <v>45084</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M8" t="n">
-        <v>20000</v>
+        <v>22556</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1333</v>
+        <v>1504</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45084</v>
+        <v>44839</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>22556</v>
+        <v>15600</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1504</v>
+        <v>1040</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>
